--- a/top95_overview_mean_results.xlsx
+++ b/top95_overview_mean_results.xlsx
@@ -8,13 +8,45 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\AI Master Leerjaar 1\Periode 4\Knowledge Representation\KR-master\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6324A2-D430-4B5B-9EC5-F3333F8C06DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB40E0F6-8E38-43F0-BEEB-E62E60442151}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{0D6640AA-50B8-444A-9BD0-64D1248E51E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{0D6640AA-50B8-444A-9BD0-64D1248E51E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Blad2!$H$2:$H$96</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Blad2!$H$2:$H$96</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Blad2!$H$2:$H$96</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad2!$H$2:$H$96</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Blad2!$H$2:$H$96</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Heuristic</t>
   </si>
@@ -100,15 +132,44 @@
   <si>
     <t>8_ Our min len probabilistic JW two sided</t>
   </si>
+  <si>
+    <t xml:space="preserve">backtracks </t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h5</t>
+  </si>
+  <si>
+    <t>h6</t>
+  </si>
+  <si>
+    <t>h7</t>
+  </si>
+  <si>
+    <t>h8</t>
+  </si>
+  <si>
+    <t>Box plot of mean backtracks for the random heuristic for damnhard Sudokus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,8 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -151,6 +215,4421 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Box plot of mean backtracks for the random heuristic for top95 Sudokus</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{98A42FC3-0A74-4DF4-8973-CC7BE745E3DA}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1000"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Box plot of mean backtracks for the MCML1 heuristic for top95 Sudokus</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5D969C5D-AE6C-493B-B877-59DEB613C4F2}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Box plot of mean backtracks for the MCML2 heuristic for top95 Sudokus</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{19262A7C-6F09-4EEA-8CF1-24C266FA13DD}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.28</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Box plot of mean backtracks for the PMCML1 heuristic for top95 Sudokus</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C4326ADC-C3DE-4DC0-9EAF-FD74F2AEAF85}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Box plot of mean backtracks for the PMCML2 heuristic for top95 Sudokus</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{18BB3933-8E18-4AAD-9DF2-9C5BA8BB122A}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Amount of backtracks</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Amount of backtracks</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.14</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.16</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Box plots of mean of backtracks of heurstics for top95 Sudokus</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Box plots of mean of backtracks of heurstics for top95 Sudokus</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5AC70FE3-9326-4F23-BEB3-205B49A225A4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Random </cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BC77821D-2618-4580-9945-1CCEE70A1060}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>MCML1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E4F54C86-082E-45A1-AC78-576D406E57D5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>MCML2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D9005B8A-FE8B-482A-BE98-73A090DF6990}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>PMCML1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{15E0F2A9-2BA2-424E-ABB3-8CE8D5588A1B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>PMCML2</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="1000"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Grafiek 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6A09DF-2946-451F-80DD-B663F4377FD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5410200" y="594360"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Grafiek 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B67F9C6-F6C5-497A-B72A-07FC1773F09B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10165080" y="579120"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Grafiek 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8DC1CF4-6663-4C51-AFF9-780C9C170168}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5334000" y="3512820"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Grafiek 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1BD613C-F6F2-4EAB-9BD0-8A499C8B9CC8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10066020" y="3566160"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Grafiek 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{291CFE65-9E96-420B-BDA9-DA1972572A3C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14988540" y="594360"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Grafiek 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C683A965-35D2-45DF-83C3-E3FED98B08C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14927580" y="3535680"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="nl-NL" sz="1100"/>
+                <a:t>Deze grafiek is niet beschikbaar in uw versie van Excel.
+Als u deze vorm bewerkt of deze werkmap opslaat in een andere bestandsindeling, wordt de grafiek onherstelbaar beschadigd.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,7 +4931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AC68BF-D4DA-4156-9D10-789502A4C8F9}">
   <dimension ref="B4:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -739,4 +5218,1661 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D0A653-82F8-425E-AF9D-4A13DEF3DCF9}">
+  <dimension ref="C1:P96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="3:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>566.79999999999995</v>
+      </c>
+      <c r="E2">
+        <v>208.4</v>
+      </c>
+      <c r="F2">
+        <v>225.4</v>
+      </c>
+      <c r="G2">
+        <v>326.60000000000002</v>
+      </c>
+      <c r="H2">
+        <v>213.2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>322.8</v>
+      </c>
+      <c r="E3">
+        <v>192.2</v>
+      </c>
+      <c r="F3">
+        <v>242.6</v>
+      </c>
+      <c r="G3">
+        <v>180.6</v>
+      </c>
+      <c r="H3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>520.20000000000005</v>
+      </c>
+      <c r="E4">
+        <v>191.8</v>
+      </c>
+      <c r="F4">
+        <v>186.6</v>
+      </c>
+      <c r="G4">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="H4">
+        <v>207.8</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>632.6</v>
+      </c>
+      <c r="E5">
+        <v>3.6</v>
+      </c>
+      <c r="F5">
+        <v>4.8</v>
+      </c>
+      <c r="G5">
+        <v>77.2</v>
+      </c>
+      <c r="H5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>806</v>
+      </c>
+      <c r="E6">
+        <v>27.8</v>
+      </c>
+      <c r="F6">
+        <v>26.2</v>
+      </c>
+      <c r="G6">
+        <v>55</v>
+      </c>
+      <c r="H6">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>860</v>
+      </c>
+      <c r="E7">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="F7">
+        <v>244.2</v>
+      </c>
+      <c r="G7">
+        <v>172</v>
+      </c>
+      <c r="H7">
+        <v>225.2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>418.6</v>
+      </c>
+      <c r="E8">
+        <v>13.2</v>
+      </c>
+      <c r="F8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G8">
+        <v>56.4</v>
+      </c>
+      <c r="H8">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>956</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H9">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>413.6</v>
+      </c>
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>1.8</v>
+      </c>
+      <c r="G10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H10">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>434.6</v>
+      </c>
+      <c r="E11">
+        <v>22.4</v>
+      </c>
+      <c r="F11">
+        <v>23.2</v>
+      </c>
+      <c r="G11">
+        <v>102.6</v>
+      </c>
+      <c r="H11">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>207</v>
+      </c>
+      <c r="E12">
+        <v>75.8</v>
+      </c>
+      <c r="F12">
+        <v>48.8</v>
+      </c>
+      <c r="G12">
+        <v>60.2</v>
+      </c>
+      <c r="H12">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>31.8</v>
+      </c>
+      <c r="E13">
+        <v>49.8</v>
+      </c>
+      <c r="F13">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>45.8</v>
+      </c>
+      <c r="H13">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>250.8</v>
+      </c>
+      <c r="E14">
+        <v>10.8</v>
+      </c>
+      <c r="F14">
+        <v>15.8</v>
+      </c>
+      <c r="G14">
+        <v>15.6</v>
+      </c>
+      <c r="H14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>354</v>
+      </c>
+      <c r="E15">
+        <v>48.8</v>
+      </c>
+      <c r="F15">
+        <v>97</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+      <c r="H15">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>108.2</v>
+      </c>
+      <c r="E16">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>23.2</v>
+      </c>
+      <c r="G16">
+        <v>62.8</v>
+      </c>
+      <c r="H16">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>106.6</v>
+      </c>
+      <c r="E17">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>47.8</v>
+      </c>
+      <c r="G17">
+        <v>33.6</v>
+      </c>
+      <c r="H17">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>102.4</v>
+      </c>
+      <c r="E18">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F18">
+        <v>117.2</v>
+      </c>
+      <c r="G18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H18">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>252.4</v>
+      </c>
+      <c r="E19">
+        <v>58.6</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="G19">
+        <v>53</v>
+      </c>
+      <c r="H19">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>11.8</v>
+      </c>
+      <c r="G20">
+        <v>45.8</v>
+      </c>
+      <c r="H20">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>97.4</v>
+      </c>
+      <c r="E21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F21">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G21">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H21">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>401.8</v>
+      </c>
+      <c r="E22">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F22">
+        <v>14.2</v>
+      </c>
+      <c r="G22">
+        <v>83.6</v>
+      </c>
+      <c r="H22">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>77.2</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>16.8</v>
+      </c>
+      <c r="H23">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>64.8</v>
+      </c>
+      <c r="H24">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>307.8</v>
+      </c>
+      <c r="E25">
+        <v>104.8</v>
+      </c>
+      <c r="F25">
+        <v>90</v>
+      </c>
+      <c r="G25">
+        <v>94.4</v>
+      </c>
+      <c r="H25">
+        <v>117.6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>27.2</v>
+      </c>
+      <c r="E26">
+        <v>27.6</v>
+      </c>
+      <c r="F26">
+        <v>24.6</v>
+      </c>
+      <c r="G26">
+        <v>59.2</v>
+      </c>
+      <c r="H26">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>241.6</v>
+      </c>
+      <c r="E27">
+        <v>34.6</v>
+      </c>
+      <c r="F27">
+        <v>15.8</v>
+      </c>
+      <c r="G27">
+        <v>36.6</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>139.6</v>
+      </c>
+      <c r="E28">
+        <v>55.6</v>
+      </c>
+      <c r="F28">
+        <v>99.2</v>
+      </c>
+      <c r="G28">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H28">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>132.4</v>
+      </c>
+      <c r="E29">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F29">
+        <v>39.6</v>
+      </c>
+      <c r="G29">
+        <v>18.8</v>
+      </c>
+      <c r="H29">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>98.6</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>10.6</v>
+      </c>
+      <c r="G30">
+        <v>43.6</v>
+      </c>
+      <c r="H30">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>156</v>
+      </c>
+      <c r="E31">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>52.4</v>
+      </c>
+      <c r="H31">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>105</v>
+      </c>
+      <c r="E32">
+        <v>20.2</v>
+      </c>
+      <c r="F32">
+        <v>18.8</v>
+      </c>
+      <c r="G32">
+        <v>16</v>
+      </c>
+      <c r="H32">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>52.4</v>
+      </c>
+      <c r="E33">
+        <v>69</v>
+      </c>
+      <c r="F33">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G33">
+        <v>31.8</v>
+      </c>
+      <c r="H33">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>86.6</v>
+      </c>
+      <c r="E34">
+        <v>30.2</v>
+      </c>
+      <c r="F34">
+        <v>30.2</v>
+      </c>
+      <c r="G34">
+        <v>52.2</v>
+      </c>
+      <c r="H34">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>308</v>
+      </c>
+      <c r="E35">
+        <v>49.8</v>
+      </c>
+      <c r="F35">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G35">
+        <v>61.8</v>
+      </c>
+      <c r="H35">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>136.6</v>
+      </c>
+      <c r="E36">
+        <v>18.2</v>
+      </c>
+      <c r="F36">
+        <v>25.2</v>
+      </c>
+      <c r="G36">
+        <v>48.6</v>
+      </c>
+      <c r="H36">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>183.8</v>
+      </c>
+      <c r="E37">
+        <v>14.4</v>
+      </c>
+      <c r="F37">
+        <v>13.4</v>
+      </c>
+      <c r="G37">
+        <v>48</v>
+      </c>
+      <c r="H37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>103.8</v>
+      </c>
+      <c r="E38">
+        <v>18.8</v>
+      </c>
+      <c r="F38">
+        <v>10.6</v>
+      </c>
+      <c r="G38">
+        <v>51.4</v>
+      </c>
+      <c r="H38">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E39">
+        <v>27.2</v>
+      </c>
+      <c r="F39">
+        <v>24.2</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>215.8</v>
+      </c>
+      <c r="E40">
+        <v>11.2</v>
+      </c>
+      <c r="F40">
+        <v>17.2</v>
+      </c>
+      <c r="G40">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E41">
+        <v>54.2</v>
+      </c>
+      <c r="F41">
+        <v>64.2</v>
+      </c>
+      <c r="G41">
+        <v>51.4</v>
+      </c>
+      <c r="H41">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>176.6</v>
+      </c>
+      <c r="E42">
+        <v>28.8</v>
+      </c>
+      <c r="F42">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G42">
+        <v>44.4</v>
+      </c>
+      <c r="H42">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>295.2</v>
+      </c>
+      <c r="E43">
+        <v>46.6</v>
+      </c>
+      <c r="F43">
+        <v>45</v>
+      </c>
+      <c r="G43">
+        <v>49</v>
+      </c>
+      <c r="H43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>41.2</v>
+      </c>
+      <c r="F44">
+        <v>32.4</v>
+      </c>
+      <c r="G44">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H44">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>108.2</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>32.6</v>
+      </c>
+      <c r="G45">
+        <v>27.8</v>
+      </c>
+      <c r="H45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H46">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>111.2</v>
+      </c>
+      <c r="E47">
+        <v>33.6</v>
+      </c>
+      <c r="F47">
+        <v>31.4</v>
+      </c>
+      <c r="G47">
+        <v>31.2</v>
+      </c>
+      <c r="H47">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>156</v>
+      </c>
+      <c r="E48">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F48">
+        <v>24.4</v>
+      </c>
+      <c r="G48">
+        <v>32.6</v>
+      </c>
+      <c r="H48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>91.2</v>
+      </c>
+      <c r="E49">
+        <v>44.8</v>
+      </c>
+      <c r="F49">
+        <v>29.2</v>
+      </c>
+      <c r="G49">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H49">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>245.6</v>
+      </c>
+      <c r="E50">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="F50">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="G50">
+        <v>58.6</v>
+      </c>
+      <c r="H50">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>60.4</v>
+      </c>
+      <c r="E51">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F51">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G51">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H51">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>61</v>
+      </c>
+      <c r="E52">
+        <v>57.2</v>
+      </c>
+      <c r="F52">
+        <v>49.2</v>
+      </c>
+      <c r="G52">
+        <v>27.6</v>
+      </c>
+      <c r="H52">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>158</v>
+      </c>
+      <c r="E53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G53">
+        <v>18.2</v>
+      </c>
+      <c r="H53">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>56.2</v>
+      </c>
+      <c r="E54">
+        <v>23.4</v>
+      </c>
+      <c r="F54">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G54">
+        <v>21.8</v>
+      </c>
+      <c r="H54">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>42</v>
+      </c>
+      <c r="E55">
+        <v>25</v>
+      </c>
+      <c r="F55">
+        <v>24.6</v>
+      </c>
+      <c r="G55">
+        <v>18.8</v>
+      </c>
+      <c r="H55">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>65</v>
+      </c>
+      <c r="E56">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F56">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G56">
+        <v>26.2</v>
+      </c>
+      <c r="H56">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>23.4</v>
+      </c>
+      <c r="E57">
+        <v>22.8</v>
+      </c>
+      <c r="F57">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G57">
+        <v>20.2</v>
+      </c>
+      <c r="H57">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>4.8</v>
+      </c>
+      <c r="F58">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G58">
+        <v>31</v>
+      </c>
+      <c r="H58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>30.6</v>
+      </c>
+      <c r="E59">
+        <v>11.6</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>21</v>
+      </c>
+      <c r="H59">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>89.8</v>
+      </c>
+      <c r="E60">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F60">
+        <v>11.6</v>
+      </c>
+      <c r="G60">
+        <v>11.8</v>
+      </c>
+      <c r="H60">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>58.2</v>
+      </c>
+      <c r="E61">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F61">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G61">
+        <v>25.2</v>
+      </c>
+      <c r="H61">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E62">
+        <v>15.6</v>
+      </c>
+      <c r="F62">
+        <v>15.8</v>
+      </c>
+      <c r="G62">
+        <v>30.4</v>
+      </c>
+      <c r="H62">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>67</v>
+      </c>
+      <c r="E63">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F63">
+        <v>49.4</v>
+      </c>
+      <c r="G63">
+        <v>30</v>
+      </c>
+      <c r="H63">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>69</v>
+      </c>
+      <c r="E64">
+        <v>23.2</v>
+      </c>
+      <c r="F64">
+        <v>28.2</v>
+      </c>
+      <c r="G64">
+        <v>18.8</v>
+      </c>
+      <c r="H64">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>55.4</v>
+      </c>
+      <c r="E65">
+        <v>20.2</v>
+      </c>
+      <c r="F65">
+        <v>22</v>
+      </c>
+      <c r="G65">
+        <v>20.6</v>
+      </c>
+      <c r="H65">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>135.4</v>
+      </c>
+      <c r="E66">
+        <v>56.2</v>
+      </c>
+      <c r="F66">
+        <v>54.4</v>
+      </c>
+      <c r="G66">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H66">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E67">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>6.2</v>
+      </c>
+      <c r="G67">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>149.6</v>
+      </c>
+      <c r="E68">
+        <v>51.4</v>
+      </c>
+      <c r="F68">
+        <v>54.4</v>
+      </c>
+      <c r="G68">
+        <v>38.6</v>
+      </c>
+      <c r="H68">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E69">
+        <v>87.2</v>
+      </c>
+      <c r="F69">
+        <v>70</v>
+      </c>
+      <c r="G69">
+        <v>19.8</v>
+      </c>
+      <c r="H69">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>48.6</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>12.2</v>
+      </c>
+      <c r="G70">
+        <v>13.6</v>
+      </c>
+      <c r="H70">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="E71">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>26.6</v>
+      </c>
+      <c r="H71">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>436.6</v>
+      </c>
+      <c r="E72">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F72">
+        <v>27.4</v>
+      </c>
+      <c r="G72">
+        <v>45.4</v>
+      </c>
+      <c r="H72">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>53.8</v>
+      </c>
+      <c r="E73">
+        <v>37.6</v>
+      </c>
+      <c r="F73">
+        <v>36.6</v>
+      </c>
+      <c r="G73">
+        <v>28.2</v>
+      </c>
+      <c r="H73">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>229.2</v>
+      </c>
+      <c r="E74">
+        <v>42.8</v>
+      </c>
+      <c r="F74">
+        <v>41.8</v>
+      </c>
+      <c r="G74">
+        <v>48.2</v>
+      </c>
+      <c r="H74">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>197.2</v>
+      </c>
+      <c r="E75">
+        <v>7.8</v>
+      </c>
+      <c r="F75">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G75">
+        <v>22.8</v>
+      </c>
+      <c r="H75">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>26.8</v>
+      </c>
+      <c r="E76">
+        <v>25.2</v>
+      </c>
+      <c r="F76">
+        <v>30.4</v>
+      </c>
+      <c r="G76">
+        <v>15.2</v>
+      </c>
+      <c r="H76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>36.6</v>
+      </c>
+      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <v>10.6</v>
+      </c>
+      <c r="G77">
+        <v>22.2</v>
+      </c>
+      <c r="H77">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>66</v>
+      </c>
+      <c r="E78">
+        <v>11.8</v>
+      </c>
+      <c r="F78">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G78">
+        <v>11.2</v>
+      </c>
+      <c r="H78">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>114.6</v>
+      </c>
+      <c r="E79">
+        <v>30.6</v>
+      </c>
+      <c r="F79">
+        <v>25.2</v>
+      </c>
+      <c r="G79">
+        <v>14.8</v>
+      </c>
+      <c r="H79">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="E80">
+        <v>61</v>
+      </c>
+      <c r="F80">
+        <v>51.4</v>
+      </c>
+      <c r="G80">
+        <v>47</v>
+      </c>
+      <c r="H80">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>86.8</v>
+      </c>
+      <c r="E81">
+        <v>2.8</v>
+      </c>
+      <c r="F81">
+        <v>8.4</v>
+      </c>
+      <c r="G81">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>122.8</v>
+      </c>
+      <c r="E82">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F82">
+        <v>3.2</v>
+      </c>
+      <c r="G82">
+        <v>31.8</v>
+      </c>
+      <c r="H82">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E83">
+        <v>42</v>
+      </c>
+      <c r="F83">
+        <v>32.4</v>
+      </c>
+      <c r="G83">
+        <v>21.6</v>
+      </c>
+      <c r="H83">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>44.2</v>
+      </c>
+      <c r="E84">
+        <v>35</v>
+      </c>
+      <c r="F84">
+        <v>28.4</v>
+      </c>
+      <c r="G84">
+        <v>27.4</v>
+      </c>
+      <c r="H84">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>167</v>
+      </c>
+      <c r="E85">
+        <v>44.4</v>
+      </c>
+      <c r="F85">
+        <v>37.4</v>
+      </c>
+      <c r="G85">
+        <v>24</v>
+      </c>
+      <c r="H85">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>65.8</v>
+      </c>
+      <c r="E86">
+        <v>38.4</v>
+      </c>
+      <c r="F86">
+        <v>51.6</v>
+      </c>
+      <c r="G86">
+        <v>28.6</v>
+      </c>
+      <c r="H86">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>45.4</v>
+      </c>
+      <c r="E87">
+        <v>12.2</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>7.2</v>
+      </c>
+      <c r="H87">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>104.4</v>
+      </c>
+      <c r="E88">
+        <v>20.6</v>
+      </c>
+      <c r="F88">
+        <v>20.2</v>
+      </c>
+      <c r="G88">
+        <v>23.8</v>
+      </c>
+      <c r="H88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E89">
+        <v>34.4</v>
+      </c>
+      <c r="F89">
+        <v>32.6</v>
+      </c>
+      <c r="G89">
+        <v>27.4</v>
+      </c>
+      <c r="H89">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>117.8</v>
+      </c>
+      <c r="E90">
+        <v>10</v>
+      </c>
+      <c r="F90">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G90">
+        <v>31.4</v>
+      </c>
+      <c r="H90">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>52</v>
+      </c>
+      <c r="E91">
+        <v>6.6</v>
+      </c>
+      <c r="F91">
+        <v>6.8</v>
+      </c>
+      <c r="G91">
+        <v>29.2</v>
+      </c>
+      <c r="H91">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>96</v>
+      </c>
+      <c r="E92">
+        <v>25.8</v>
+      </c>
+      <c r="F92">
+        <v>21.2</v>
+      </c>
+      <c r="G92">
+        <v>27.8</v>
+      </c>
+      <c r="H92">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>100.2</v>
+      </c>
+      <c r="E93">
+        <v>27</v>
+      </c>
+      <c r="F93">
+        <v>15.2</v>
+      </c>
+      <c r="G93">
+        <v>24.6</v>
+      </c>
+      <c r="H93">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>42.8</v>
+      </c>
+      <c r="E94">
+        <v>7</v>
+      </c>
+      <c r="F94">
+        <v>10.8</v>
+      </c>
+      <c r="G94">
+        <v>18.8</v>
+      </c>
+      <c r="H94">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>113.2</v>
+      </c>
+      <c r="E95">
+        <v>62.2</v>
+      </c>
+      <c r="F95">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G95">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H95">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>349</v>
+      </c>
+      <c r="E96">
+        <v>88.6</v>
+      </c>
+      <c r="F96">
+        <v>1.6</v>
+      </c>
+      <c r="G96">
+        <v>31.8</v>
+      </c>
+      <c r="H96">
+        <v>21.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/top95_overview_mean_results.xlsx
+++ b/top95_overview_mean_results.xlsx
@@ -8,42 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marvi\Documents\AI Master Leerjaar 1\Periode 4\Knowledge Representation\KR-master\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB40E0F6-8E38-43F0-BEEB-E62E60442151}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0C861E-0906-4B8E-87C7-6F2F89540AAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{0D6640AA-50B8-444A-9BD0-64D1248E51E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="3" xr2:uid="{0D6640AA-50B8-444A-9BD0-64D1248E51E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
+    <sheet name="Blad4" sheetId="4" r:id="rId3"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Blad2!$D$2:$D$96</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Blad2!$E$2:$E$96</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Blad2!$E$2:$E$96</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Blad2!$F$2:$F$96</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Blad2!$D$2:$D$96</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Blad2!$D$2:$D$96</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Blad2!$E$2:$E$96</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Blad2!$F$2:$F$96</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Blad2!$G$2:$G$96</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Blad2!$H$2:$H$96</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Blad2!$H$2:$H$96</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Blad2!$E$2:$E$96</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">Blad2!$G$2:$G$96</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Blad2!$H$2:$H$96</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad2!$F$2:$F$96</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Blad2!$D$2:$D$96</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Blad2!$E$2:$E$96</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Blad2!$F$2:$F$96</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Blad2!$G$2:$G$96</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Blad2!$H$2:$H$96</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Blad2!$D$2:$D$96</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Blad2!$E$2:$E$96</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Blad2!$E$2:$E$96</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Blad2!$G$2:$G$96</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad2!$G$2:$G$96</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Blad2!$H$2:$H$96</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Blad2!$D$2:$D$96</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Blad2!$E$2:$E$96</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad2!$D$2:$D$96</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Blad2!$E$2:$E$96</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Blad2!$F$2:$F$96</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Blad2!$G$2:$G$96</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Blad2!$H$2:$H$96</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Blad2!$G$2:$G$96</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Blad2!$H$2:$H$96</definedName>
   </definedNames>
@@ -62,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t>Heuristic</t>
   </si>
@@ -153,12 +145,159 @@
   <si>
     <t>Box plot of mean backtracks for the random heuristic for damnhard Sudokus</t>
   </si>
+  <si>
+    <t>1 5</t>
+  </si>
+  <si>
+    <t>1 6</t>
+  </si>
+  <si>
+    <t>1 7</t>
+  </si>
+  <si>
+    <t>1 8</t>
+  </si>
+  <si>
+    <t>5 6</t>
+  </si>
+  <si>
+    <t>5 7</t>
+  </si>
+  <si>
+    <t>5 8</t>
+  </si>
+  <si>
+    <t>6 7</t>
+  </si>
+  <si>
+    <t>6 8</t>
+  </si>
+  <si>
+    <t>7 8</t>
+  </si>
+  <si>
+    <t>T-stat</t>
+  </si>
+  <si>
+    <t>Plus minus T-critical two tail value</t>
+  </si>
+  <si>
+    <t>Reject null hypothese of equal</t>
+  </si>
+  <si>
+    <t>Unifactoriële variantie-analyse</t>
+  </si>
+  <si>
+    <t>SAMENVATTING</t>
+  </si>
+  <si>
+    <t>Groepen</t>
+  </si>
+  <si>
+    <t>Aantal</t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>Gemiddelde</t>
+  </si>
+  <si>
+    <t>Variantie</t>
+  </si>
+  <si>
+    <t>Kolom 1</t>
+  </si>
+  <si>
+    <t>Kolom 2</t>
+  </si>
+  <si>
+    <t>Kolom 3</t>
+  </si>
+  <si>
+    <t>Kolom 4</t>
+  </si>
+  <si>
+    <t>Kolom 5</t>
+  </si>
+  <si>
+    <t>Variantie-analyse</t>
+  </si>
+  <si>
+    <t>Bron van variatie</t>
+  </si>
+  <si>
+    <t>Kwadratensom</t>
+  </si>
+  <si>
+    <t>Vrijheidsgraden</t>
+  </si>
+  <si>
+    <t>Gemiddelde kwadraten</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-waarde</t>
+  </si>
+  <si>
+    <t>Kritische gebied van F-toets</t>
+  </si>
+  <si>
+    <t>Tussen groepen</t>
+  </si>
+  <si>
+    <t>Binnen groepen</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>Er is verschil</t>
+  </si>
+  <si>
+    <t>T-toets: twee steekproeven met ongelijke varianties</t>
+  </si>
+  <si>
+    <t>Variabele 1</t>
+  </si>
+  <si>
+    <t>Variabele 2</t>
+  </si>
+  <si>
+    <t>Waarnemingen</t>
+  </si>
+  <si>
+    <t>Schatting van verschil tussen gemiddelden</t>
+  </si>
+  <si>
+    <t>T- statistische gegevens</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) eenzijdig</t>
+  </si>
+  <si>
+    <t>Kritiek gebied van T-toets: eenzijdig</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) tweezijdig</t>
+  </si>
+  <si>
+    <t>Kritiek gebied van T-toets: tweezijdig</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,16 +313,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -191,15 +344,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -222,7 +401,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -318,7 +497,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -413,7 +592,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -508,7 +687,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -603,7 +782,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -698,27 +877,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4932,7 +5111,7 @@
   <dimension ref="B4:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5224,8 +5403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D0A653-82F8-425E-AF9D-4A13DEF3DCF9}">
   <dimension ref="C1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6875,4 +7054,2097 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29158C17-FB74-43E4-9106-4E00C5C9703E}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16504.400000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>173.73052631578949</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32964.425334826432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2">
+        <v>95</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3774.5999999999995</v>
+      </c>
+      <c r="D6" s="2">
+        <v>39.732631578947363</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2056.0269025755897</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="2">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3722.199999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>39.181052631578929</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2251.2196371780519</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4009.6000000000004</v>
+      </c>
+      <c r="D8" s="2">
+        <v>42.206315789473685</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1781.0131511758134</v>
+      </c>
+      <c r="J8" s="2">
+        <v>41.276064070938595</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2.3909103808559098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3720.1999999999994</v>
+      </c>
+      <c r="D9" s="3">
+        <v>39.159999999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2083.397957446809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1358348.4774736972</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>339587.11936842429</v>
+      </c>
+      <c r="E14" s="2">
+        <v>41.276064070938595</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.1680155211886589E-29</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2.3909103808559098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3866791.8004210531</v>
+      </c>
+      <c r="C15" s="2">
+        <v>470</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8227.2165966405391</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5225140.2778947502</v>
+      </c>
+      <c r="C17" s="3">
+        <v>474</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E6D27A-7BB7-4377-A8FC-9D093C6AC6DF}">
+  <dimension ref="D7:R102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:R9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="7" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>566.79999999999995</v>
+      </c>
+      <c r="E8">
+        <v>208.4</v>
+      </c>
+      <c r="F8">
+        <v>225.4</v>
+      </c>
+      <c r="G8">
+        <v>326.60000000000002</v>
+      </c>
+      <c r="H8">
+        <v>213.2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>322.8</v>
+      </c>
+      <c r="E9">
+        <v>192.2</v>
+      </c>
+      <c r="F9">
+        <v>242.6</v>
+      </c>
+      <c r="G9">
+        <v>180.6</v>
+      </c>
+      <c r="H9">
+        <v>253</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D10">
+        <v>520.20000000000005</v>
+      </c>
+      <c r="E10">
+        <v>191.8</v>
+      </c>
+      <c r="F10">
+        <v>186.6</v>
+      </c>
+      <c r="G10">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="H10">
+        <v>207.8</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="2">
+        <v>6.979091669423255</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1.9825972617654992</v>
+      </c>
+      <c r="R10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>632.6</v>
+      </c>
+      <c r="E11">
+        <v>3.6</v>
+      </c>
+      <c r="F11">
+        <v>4.8</v>
+      </c>
+      <c r="G11">
+        <v>77.2</v>
+      </c>
+      <c r="H11">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="2">
+        <v>6.9883714771505874</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1.9823833701756892</v>
+      </c>
+      <c r="R11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12">
+        <v>806</v>
+      </c>
+      <c r="E12">
+        <v>27.8</v>
+      </c>
+      <c r="F12">
+        <v>26.2</v>
+      </c>
+      <c r="G12">
+        <v>55</v>
+      </c>
+      <c r="H12">
+        <v>31.4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.8773101095377411</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1.9830375264837292</v>
+      </c>
+      <c r="R12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13">
+        <v>860</v>
+      </c>
+      <c r="E13">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="F13">
+        <v>244.2</v>
+      </c>
+      <c r="G13">
+        <v>172</v>
+      </c>
+      <c r="H13">
+        <v>225.2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2">
+        <v>7.0061789920095636</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1.9825972617654992</v>
+      </c>
+      <c r="R13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>418.6</v>
+      </c>
+      <c r="E14">
+        <v>13.2</v>
+      </c>
+      <c r="F14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G14">
+        <v>56.4</v>
+      </c>
+      <c r="H14">
+        <v>26.2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8.1916166290116124E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>1.9726626923813055</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>956</v>
+      </c>
+      <c r="E15">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H15">
+        <v>5.4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="2">
+        <v>-0.38923142236052527</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.9727310334089139</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>413.6</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+      <c r="F16">
+        <v>1.8</v>
+      </c>
+      <c r="G16">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H16">
+        <v>12.2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2">
+        <v>8.6749522961533834E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <v>1.9726626923813055</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>434.6</v>
+      </c>
+      <c r="E17">
+        <v>22.4</v>
+      </c>
+      <c r="F17">
+        <v>23.2</v>
+      </c>
+      <c r="G17">
+        <v>102.6</v>
+      </c>
+      <c r="H17">
+        <v>27.4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="2">
+        <v>-0.46435717749441902</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1.972869946210895</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>207</v>
+      </c>
+      <c r="E18">
+        <v>75.8</v>
+      </c>
+      <c r="F18">
+        <v>48.8</v>
+      </c>
+      <c r="G18">
+        <v>60.2</v>
+      </c>
+      <c r="H18">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3.1166841922930237E-3</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1.9726626923813055</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <v>31.8</v>
+      </c>
+      <c r="E19">
+        <v>49.8</v>
+      </c>
+      <c r="F19">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <v>45.8</v>
+      </c>
+      <c r="H19">
+        <v>53.6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.47763381201904398</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.9727310334089139</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>250.8</v>
+      </c>
+      <c r="E20">
+        <v>10.8</v>
+      </c>
+      <c r="F20">
+        <v>15.8</v>
+      </c>
+      <c r="G20">
+        <v>15.6</v>
+      </c>
+      <c r="H20">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>354</v>
+      </c>
+      <c r="E21">
+        <v>48.8</v>
+      </c>
+      <c r="F21">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>53</v>
+      </c>
+      <c r="H21">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>108.2</v>
+      </c>
+      <c r="E22">
+        <v>36</v>
+      </c>
+      <c r="F22">
+        <v>23.2</v>
+      </c>
+      <c r="G22">
+        <v>62.8</v>
+      </c>
+      <c r="H22">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>106.6</v>
+      </c>
+      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>47.8</v>
+      </c>
+      <c r="G23">
+        <v>33.6</v>
+      </c>
+      <c r="H23">
+        <v>31.8</v>
+      </c>
+      <c r="K23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>102.4</v>
+      </c>
+      <c r="E24">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F24">
+        <v>117.2</v>
+      </c>
+      <c r="G24">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H24">
+        <v>102.4</v>
+      </c>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>252.4</v>
+      </c>
+      <c r="E25">
+        <v>58.6</v>
+      </c>
+      <c r="F25">
+        <v>31</v>
+      </c>
+      <c r="G25">
+        <v>53</v>
+      </c>
+      <c r="H25">
+        <v>31.2</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>11.8</v>
+      </c>
+      <c r="G26">
+        <v>45.8</v>
+      </c>
+      <c r="H26">
+        <v>24.4</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="2">
+        <v>42.206315789473685</v>
+      </c>
+      <c r="M26" s="2">
+        <v>39.159999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>97.4</v>
+      </c>
+      <c r="E27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F27">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G27">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H27">
+        <v>14.8</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1781.0131511758134</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2083.397957446809</v>
+      </c>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>401.8</v>
+      </c>
+      <c r="E28">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F28">
+        <v>14.2</v>
+      </c>
+      <c r="G28">
+        <v>83.6</v>
+      </c>
+      <c r="H28">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" s="2">
+        <v>95</v>
+      </c>
+      <c r="M28" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>77.2</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>16.8</v>
+      </c>
+      <c r="H29">
+        <v>25.2</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>64.8</v>
+      </c>
+      <c r="H30">
+        <v>53.8</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L30" s="2">
+        <v>187</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>307.8</v>
+      </c>
+      <c r="E31">
+        <v>104.8</v>
+      </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>94.4</v>
+      </c>
+      <c r="H31">
+        <v>117.6</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.47763381201904398</v>
+      </c>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>27.2</v>
+      </c>
+      <c r="E32">
+        <v>27.6</v>
+      </c>
+      <c r="F32">
+        <v>24.6</v>
+      </c>
+      <c r="G32">
+        <v>59.2</v>
+      </c>
+      <c r="H32">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0.31673433571777765</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>241.6</v>
+      </c>
+      <c r="E33">
+        <v>34.6</v>
+      </c>
+      <c r="F33">
+        <v>15.8</v>
+      </c>
+      <c r="G33">
+        <v>36.6</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1.6530428889466318</v>
+      </c>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>139.6</v>
+      </c>
+      <c r="E34">
+        <v>55.6</v>
+      </c>
+      <c r="F34">
+        <v>99.2</v>
+      </c>
+      <c r="G34">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="H34">
+        <v>56</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.6334686714355553</v>
+      </c>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D35">
+        <v>132.4</v>
+      </c>
+      <c r="E35">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F35">
+        <v>39.6</v>
+      </c>
+      <c r="G35">
+        <v>18.8</v>
+      </c>
+      <c r="H35">
+        <v>22.6</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L35" s="3">
+        <v>1.9727310334089139</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>98.6</v>
+      </c>
+      <c r="E36">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>10.6</v>
+      </c>
+      <c r="G36">
+        <v>43.6</v>
+      </c>
+      <c r="H36">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>156</v>
+      </c>
+      <c r="E37">
+        <v>100</v>
+      </c>
+      <c r="F37">
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <v>52.4</v>
+      </c>
+      <c r="H37">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>105</v>
+      </c>
+      <c r="E38">
+        <v>20.2</v>
+      </c>
+      <c r="F38">
+        <v>18.8</v>
+      </c>
+      <c r="G38">
+        <v>16</v>
+      </c>
+      <c r="H38">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>52.4</v>
+      </c>
+      <c r="E39">
+        <v>69</v>
+      </c>
+      <c r="F39">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="G39">
+        <v>31.8</v>
+      </c>
+      <c r="H39">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>86.6</v>
+      </c>
+      <c r="E40">
+        <v>30.2</v>
+      </c>
+      <c r="F40">
+        <v>30.2</v>
+      </c>
+      <c r="G40">
+        <v>52.2</v>
+      </c>
+      <c r="H40">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>308</v>
+      </c>
+      <c r="E41">
+        <v>49.8</v>
+      </c>
+      <c r="F41">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="G41">
+        <v>61.8</v>
+      </c>
+      <c r="H41">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>136.6</v>
+      </c>
+      <c r="E42">
+        <v>18.2</v>
+      </c>
+      <c r="F42">
+        <v>25.2</v>
+      </c>
+      <c r="G42">
+        <v>48.6</v>
+      </c>
+      <c r="H42">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>183.8</v>
+      </c>
+      <c r="E43">
+        <v>14.4</v>
+      </c>
+      <c r="F43">
+        <v>13.4</v>
+      </c>
+      <c r="G43">
+        <v>48</v>
+      </c>
+      <c r="H43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>103.8</v>
+      </c>
+      <c r="E44">
+        <v>18.8</v>
+      </c>
+      <c r="F44">
+        <v>10.6</v>
+      </c>
+      <c r="G44">
+        <v>51.4</v>
+      </c>
+      <c r="H44">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E45">
+        <v>27.2</v>
+      </c>
+      <c r="F45">
+        <v>24.2</v>
+      </c>
+      <c r="G45">
+        <v>25</v>
+      </c>
+      <c r="H45">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>215.8</v>
+      </c>
+      <c r="E46">
+        <v>11.2</v>
+      </c>
+      <c r="F46">
+        <v>17.2</v>
+      </c>
+      <c r="G46">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E47">
+        <v>54.2</v>
+      </c>
+      <c r="F47">
+        <v>64.2</v>
+      </c>
+      <c r="G47">
+        <v>51.4</v>
+      </c>
+      <c r="H47">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>176.6</v>
+      </c>
+      <c r="E48">
+        <v>28.8</v>
+      </c>
+      <c r="F48">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G48">
+        <v>44.4</v>
+      </c>
+      <c r="H48">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>295.2</v>
+      </c>
+      <c r="E49">
+        <v>46.6</v>
+      </c>
+      <c r="F49">
+        <v>45</v>
+      </c>
+      <c r="G49">
+        <v>49</v>
+      </c>
+      <c r="H49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>13</v>
+      </c>
+      <c r="E50">
+        <v>41.2</v>
+      </c>
+      <c r="F50">
+        <v>32.4</v>
+      </c>
+      <c r="G50">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="H50">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>108.2</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
+      </c>
+      <c r="F51">
+        <v>32.6</v>
+      </c>
+      <c r="G51">
+        <v>27.8</v>
+      </c>
+      <c r="H51">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H52">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>111.2</v>
+      </c>
+      <c r="E53">
+        <v>33.6</v>
+      </c>
+      <c r="F53">
+        <v>31.4</v>
+      </c>
+      <c r="G53">
+        <v>31.2</v>
+      </c>
+      <c r="H53">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>156</v>
+      </c>
+      <c r="E54">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F54">
+        <v>24.4</v>
+      </c>
+      <c r="G54">
+        <v>32.6</v>
+      </c>
+      <c r="H54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>91.2</v>
+      </c>
+      <c r="E55">
+        <v>44.8</v>
+      </c>
+      <c r="F55">
+        <v>29.2</v>
+      </c>
+      <c r="G55">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H55">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>245.6</v>
+      </c>
+      <c r="E56">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="F56">
+        <v>150.19999999999999</v>
+      </c>
+      <c r="G56">
+        <v>58.6</v>
+      </c>
+      <c r="H56">
+        <v>138.6</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>60.4</v>
+      </c>
+      <c r="E57">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F57">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G57">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="H57">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>61</v>
+      </c>
+      <c r="E58">
+        <v>57.2</v>
+      </c>
+      <c r="F58">
+        <v>49.2</v>
+      </c>
+      <c r="G58">
+        <v>27.6</v>
+      </c>
+      <c r="H58">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>158</v>
+      </c>
+      <c r="E59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F59">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G59">
+        <v>18.2</v>
+      </c>
+      <c r="H59">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>56.2</v>
+      </c>
+      <c r="E60">
+        <v>23.4</v>
+      </c>
+      <c r="F60">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G60">
+        <v>21.8</v>
+      </c>
+      <c r="H60">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>42</v>
+      </c>
+      <c r="E61">
+        <v>25</v>
+      </c>
+      <c r="F61">
+        <v>24.6</v>
+      </c>
+      <c r="G61">
+        <v>18.8</v>
+      </c>
+      <c r="H61">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>65</v>
+      </c>
+      <c r="E62">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F62">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G62">
+        <v>26.2</v>
+      </c>
+      <c r="H62">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>23.4</v>
+      </c>
+      <c r="E63">
+        <v>22.8</v>
+      </c>
+      <c r="F63">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G63">
+        <v>20.2</v>
+      </c>
+      <c r="H63">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>4.8</v>
+      </c>
+      <c r="F64">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G64">
+        <v>31</v>
+      </c>
+      <c r="H64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>30.6</v>
+      </c>
+      <c r="E65">
+        <v>11.6</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+      <c r="G65">
+        <v>21</v>
+      </c>
+      <c r="H65">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>89.8</v>
+      </c>
+      <c r="E66">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F66">
+        <v>11.6</v>
+      </c>
+      <c r="G66">
+        <v>11.8</v>
+      </c>
+      <c r="H66">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>58.2</v>
+      </c>
+      <c r="E67">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F67">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G67">
+        <v>25.2</v>
+      </c>
+      <c r="H67">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E68">
+        <v>15.6</v>
+      </c>
+      <c r="F68">
+        <v>15.8</v>
+      </c>
+      <c r="G68">
+        <v>30.4</v>
+      </c>
+      <c r="H68">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="F69">
+        <v>49.4</v>
+      </c>
+      <c r="G69">
+        <v>30</v>
+      </c>
+      <c r="H69">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>69</v>
+      </c>
+      <c r="E70">
+        <v>23.2</v>
+      </c>
+      <c r="F70">
+        <v>28.2</v>
+      </c>
+      <c r="G70">
+        <v>18.8</v>
+      </c>
+      <c r="H70">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>55.4</v>
+      </c>
+      <c r="E71">
+        <v>20.2</v>
+      </c>
+      <c r="F71">
+        <v>22</v>
+      </c>
+      <c r="G71">
+        <v>20.6</v>
+      </c>
+      <c r="H71">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>135.4</v>
+      </c>
+      <c r="E72">
+        <v>56.2</v>
+      </c>
+      <c r="F72">
+        <v>54.4</v>
+      </c>
+      <c r="G72">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="H72">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E73">
+        <v>12</v>
+      </c>
+      <c r="F73">
+        <v>6.2</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>149.6</v>
+      </c>
+      <c r="E74">
+        <v>51.4</v>
+      </c>
+      <c r="F74">
+        <v>54.4</v>
+      </c>
+      <c r="G74">
+        <v>38.6</v>
+      </c>
+      <c r="H74">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="E75">
+        <v>87.2</v>
+      </c>
+      <c r="F75">
+        <v>70</v>
+      </c>
+      <c r="G75">
+        <v>19.8</v>
+      </c>
+      <c r="H75">
+        <v>79.2</v>
+      </c>
+    </row>
+    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>48.6</v>
+      </c>
+      <c r="E76">
+        <v>8</v>
+      </c>
+      <c r="F76">
+        <v>12.2</v>
+      </c>
+      <c r="G76">
+        <v>13.6</v>
+      </c>
+      <c r="H76">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="E77">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77">
+        <v>26.6</v>
+      </c>
+      <c r="H77">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>436.6</v>
+      </c>
+      <c r="E78">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F78">
+        <v>27.4</v>
+      </c>
+      <c r="G78">
+        <v>45.4</v>
+      </c>
+      <c r="H78">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>53.8</v>
+      </c>
+      <c r="E79">
+        <v>37.6</v>
+      </c>
+      <c r="F79">
+        <v>36.6</v>
+      </c>
+      <c r="G79">
+        <v>28.2</v>
+      </c>
+      <c r="H79">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>229.2</v>
+      </c>
+      <c r="E80">
+        <v>42.8</v>
+      </c>
+      <c r="F80">
+        <v>41.8</v>
+      </c>
+      <c r="G80">
+        <v>48.2</v>
+      </c>
+      <c r="H80">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>197.2</v>
+      </c>
+      <c r="E81">
+        <v>7.8</v>
+      </c>
+      <c r="F81">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G81">
+        <v>22.8</v>
+      </c>
+      <c r="H81">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="82" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>26.8</v>
+      </c>
+      <c r="E82">
+        <v>25.2</v>
+      </c>
+      <c r="F82">
+        <v>30.4</v>
+      </c>
+      <c r="G82">
+        <v>15.2</v>
+      </c>
+      <c r="H82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>36.6</v>
+      </c>
+      <c r="E83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>10.6</v>
+      </c>
+      <c r="G83">
+        <v>22.2</v>
+      </c>
+      <c r="H83">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>66</v>
+      </c>
+      <c r="E84">
+        <v>11.8</v>
+      </c>
+      <c r="F84">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G84">
+        <v>11.2</v>
+      </c>
+      <c r="H84">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="85" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>114.6</v>
+      </c>
+      <c r="E85">
+        <v>30.6</v>
+      </c>
+      <c r="F85">
+        <v>25.2</v>
+      </c>
+      <c r="G85">
+        <v>14.8</v>
+      </c>
+      <c r="H85">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="86" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="E86">
+        <v>61</v>
+      </c>
+      <c r="F86">
+        <v>51.4</v>
+      </c>
+      <c r="G86">
+        <v>47</v>
+      </c>
+      <c r="H86">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>86.8</v>
+      </c>
+      <c r="E87">
+        <v>2.8</v>
+      </c>
+      <c r="F87">
+        <v>8.4</v>
+      </c>
+      <c r="G87">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>122.8</v>
+      </c>
+      <c r="E88">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F88">
+        <v>3.2</v>
+      </c>
+      <c r="G88">
+        <v>31.8</v>
+      </c>
+      <c r="H88">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="89" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="E89">
+        <v>42</v>
+      </c>
+      <c r="F89">
+        <v>32.4</v>
+      </c>
+      <c r="G89">
+        <v>21.6</v>
+      </c>
+      <c r="H89">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="90" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>44.2</v>
+      </c>
+      <c r="E90">
+        <v>35</v>
+      </c>
+      <c r="F90">
+        <v>28.4</v>
+      </c>
+      <c r="G90">
+        <v>27.4</v>
+      </c>
+      <c r="H90">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="91" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>167</v>
+      </c>
+      <c r="E91">
+        <v>44.4</v>
+      </c>
+      <c r="F91">
+        <v>37.4</v>
+      </c>
+      <c r="G91">
+        <v>24</v>
+      </c>
+      <c r="H91">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="92" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>65.8</v>
+      </c>
+      <c r="E92">
+        <v>38.4</v>
+      </c>
+      <c r="F92">
+        <v>51.6</v>
+      </c>
+      <c r="G92">
+        <v>28.6</v>
+      </c>
+      <c r="H92">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="93" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>45.4</v>
+      </c>
+      <c r="E93">
+        <v>12.2</v>
+      </c>
+      <c r="F93">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>7.2</v>
+      </c>
+      <c r="H93">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>104.4</v>
+      </c>
+      <c r="E94">
+        <v>20.6</v>
+      </c>
+      <c r="F94">
+        <v>20.2</v>
+      </c>
+      <c r="G94">
+        <v>23.8</v>
+      </c>
+      <c r="H94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E95">
+        <v>34.4</v>
+      </c>
+      <c r="F95">
+        <v>32.6</v>
+      </c>
+      <c r="G95">
+        <v>27.4</v>
+      </c>
+      <c r="H95">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="96" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>117.8</v>
+      </c>
+      <c r="E96">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G96">
+        <v>31.4</v>
+      </c>
+      <c r="H96">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="97" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>52</v>
+      </c>
+      <c r="E97">
+        <v>6.6</v>
+      </c>
+      <c r="F97">
+        <v>6.8</v>
+      </c>
+      <c r="G97">
+        <v>29.2</v>
+      </c>
+      <c r="H97">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="98" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98">
+        <v>25.8</v>
+      </c>
+      <c r="F98">
+        <v>21.2</v>
+      </c>
+      <c r="G98">
+        <v>27.8</v>
+      </c>
+      <c r="H98">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="99" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>100.2</v>
+      </c>
+      <c r="E99">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>15.2</v>
+      </c>
+      <c r="G99">
+        <v>24.6</v>
+      </c>
+      <c r="H99">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="100" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>42.8</v>
+      </c>
+      <c r="E100">
+        <v>7</v>
+      </c>
+      <c r="F100">
+        <v>10.8</v>
+      </c>
+      <c r="G100">
+        <v>18.8</v>
+      </c>
+      <c r="H100">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="101" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>113.2</v>
+      </c>
+      <c r="E101">
+        <v>62.2</v>
+      </c>
+      <c r="F101">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="G101">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H101">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="102" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>349</v>
+      </c>
+      <c r="E102">
+        <v>88.6</v>
+      </c>
+      <c r="F102">
+        <v>1.6</v>
+      </c>
+      <c r="G102">
+        <v>31.8</v>
+      </c>
+      <c r="H102">
+        <v>21.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>